--- a/4월/18회차_실습체크리스트_맹민재.xlsx
+++ b/4월/18회차_실습체크리스트_맹민재.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="21345" windowHeight="8625"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11325"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -21,56 +21,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <x:si>
-    <x:t>git 주소 : https://github.com/Mminjae/Practice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>01 개발환경 구축, 변수, 타입, 연산자</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 02 백엔드 개발을 위한
-자바 프로그래밍</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실습한 단원의 항목은 v 체크해주세요.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제출일자: 5월 12일(월) 23시 59분까지</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">git이 없을시 실습이 완료된 디렉터리를 압축하여(홍길동_실습.zip) DM으로 보내주세요.  </x:t>
-  </x:si>
-  <x:si>
-    <x:t>02_java(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름 : 홍길동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실습 체크 리스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09 제너릭, 컬렉션</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13 데이터 입출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02 조건문과 반복문, 참조타입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>03 클래스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11 람다식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10 컬렉션</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실습 디렉터리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>04 상속</x:t>
+    <x:t>06_java(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01_java(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08_java(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05_java(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03_java(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12_java(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12_java(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12 스트림 요소 처리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07 예외처리, 라이브러리</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -410,76 +385,113 @@
     </x:r>
   </x:si>
   <x:si>
+    <x:t>02 조건문과 반복문, 참조타입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06_java(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13_java(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08_java(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09_java(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10_java(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10_java(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07_java(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11_java(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제출일자: 5월 12일(월) 23시 59분까지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11 람다식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04 상속</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실습 디렉터리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10 컬렉션</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03 클래스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>git 주소 : https://github.com/Mminjae/Practice</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">git이 없을시 실습이 완료된 디렉터리를 압축하여(홍길동_실습.zip) DM으로 보내주세요.  </x:t>
+  </x:si>
+  <x:si>
+    <x:t>01 개발환경 구축, 변수, 타입, 연산자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실습한 단원의 항목은 v 체크해주세요.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 02 백엔드 개발을 위한
+자바 프로그래밍</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04_java(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02_java(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06 중첩 객체</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02_java(기본)</x:t>
+  </x:si>
+  <x:si>
     <x:t>05 인터페이스</x:t>
   </x:si>
   <x:si>
+    <x:t>05_java(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13 데이터 입출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실습 체크 리스트</x:t>
+  </x:si>
+  <x:si>
     <x:t>04_java(기본)</x:t>
   </x:si>
   <x:si>
-    <x:t>06 중첩 객체</x:t>
-  </x:si>
-  <x:si>
-    <x:t>04_java(심화)</x:t>
+    <x:t>13_java(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09_java(심화)</x:t>
   </x:si>
   <x:si>
     <x:t>01_java(기본)</x:t>
   </x:si>
   <x:si>
-    <x:t>02_java(기본)</x:t>
-  </x:si>
-  <x:si>
     <x:t>08 멀티스레드</x:t>
   </x:si>
   <x:si>
+    <x:t>이름 : 홍길동</x:t>
+  </x:si>
+  <x:si>
     <x:t>03_java(기본)</x:t>
   </x:si>
   <x:si>
-    <x:t>05_java(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12_java(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12_java(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>06_java(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>01_java(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08_java(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11_java(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10_java(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>06_java(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>07_java(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13_java(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>05_java(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10_java(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09_java(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>03_java(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08_java(기본)</x:t>
+    <x:t>09 제너릭, 컬렉션</x:t>
   </x:si>
   <x:si>
     <x:t>11_java(심화)</x:t>
@@ -488,28 +500,16 @@
     <x:t>07_java(심화)</x:t>
   </x:si>
   <x:si>
-    <x:t>13_java(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09_java(심화)</x:t>
+    <x:t>심화</x:t>
   </x:si>
   <x:si>
     <x:t>단원</x:t>
   </x:si>
   <x:si>
+    <x:t>항목</x:t>
+  </x:si>
+  <x:si>
     <x:t>기본</x:t>
-  </x:si>
-  <x:si>
-    <x:t>심화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>항목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12 스트림 요소 처리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>07 예외처리, 라이브러리</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1493,8 +1493,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:F22"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <x:selection activeCell="A20" activeCellId="0" sqref="A20:F20"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <x:selection activeCell="G5" activeCellId="0" sqref="G5:G5"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
@@ -1507,7 +1507,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" ht="19.25">
       <x:c r="A1" s="9" t="s">
-        <x:v>8</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B1" s="10"/>
       <x:c r="C1" s="10"/>
@@ -1517,7 +1517,7 @@
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="11" t="s">
-        <x:v>17</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B2" s="12"/>
       <x:c r="C2" s="12"/>
@@ -1527,31 +1527,31 @@
     </x:row>
     <x:row r="3" spans="1:6" ht="27" customHeight="1">
       <x:c r="A3" s="13" t="s">
-        <x:v>7</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B3" s="14"/>
       <x:c r="C3" s="14"/>
       <x:c r="D3" s="15"/>
       <x:c r="E3" s="16" t="s">
-        <x:v>15</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F3" s="16"/>
     </x:row>
     <x:row r="4" spans="1:6">
       <x:c r="A4" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D4" s="3" t="s">
         <x:v>48</x:v>
       </x:c>
       <x:c r="E4" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F4" s="3" t="s">
         <x:v>48</x:v>
@@ -1559,186 +1559,186 @@
     </x:row>
     <x:row r="5" spans="1:6" ht="21.39999999999999857891">
       <x:c r="A5" s="17" t="s">
-        <x:v>2</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B5" s="4" t="s">
-        <x:v>1</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C5" s="8"/>
       <x:c r="D5" s="5"/>
       <x:c r="E5" s="6" t="s">
-        <x:v>22</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F5" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="17"/>
       <x:c r="B6" s="4" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C6" s="8"/>
       <x:c r="D6" s="5"/>
       <x:c r="E6" s="6" t="s">
-        <x:v>23</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F6" s="7" t="s">
-        <x:v>6</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="17"/>
       <x:c r="B7" s="4" t="s">
-        <x:v>12</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C7" s="8"/>
       <x:c r="D7" s="5"/>
       <x:c r="E7" s="6" t="s">
-        <x:v>25</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F7" s="7" t="s">
-        <x:v>40</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="17"/>
       <x:c r="B8" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C8" s="8"/>
       <x:c r="D8" s="5"/>
       <x:c r="E8" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F8" s="7" t="s">
-        <x:v>21</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="17"/>
       <x:c r="B9" s="4" t="s">
-        <x:v>18</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C9" s="8"/>
       <x:c r="D9" s="5"/>
       <x:c r="E9" s="6" t="s">
-        <x:v>26</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F9" s="7" t="s">
-        <x:v>37</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="17"/>
       <x:c r="B10" s="4" t="s">
-        <x:v>20</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C10" s="8"/>
       <x:c r="D10" s="5"/>
       <x:c r="E10" s="6" t="s">
-        <x:v>29</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F10" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="17"/>
       <x:c r="B11" s="4" t="s">
-        <x:v>51</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C11" s="8"/>
       <x:c r="D11" s="5"/>
       <x:c r="E11" s="6" t="s">
-        <x:v>35</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F11" s="7" t="s">
-        <x:v>43</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="A12" s="17"/>
       <x:c r="B12" s="4" t="s">
-        <x:v>24</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C12" s="8"/>
       <x:c r="D12" s="5"/>
       <x:c r="E12" s="6" t="s">
-        <x:v>41</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F12" s="7" t="s">
-        <x:v>31</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6">
       <x:c r="A13" s="17"/>
       <x:c r="B13" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C13" s="8"/>
       <x:c r="D13" s="5"/>
       <x:c r="E13" s="6" t="s">
-        <x:v>39</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F13" s="7" t="s">
-        <x:v>45</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6">
       <x:c r="A14" s="17"/>
       <x:c r="B14" s="4" t="s">
-        <x:v>14</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C14" s="8"/>
       <x:c r="D14" s="5"/>
       <x:c r="E14" s="6" t="s">
-        <x:v>33</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F14" s="7" t="s">
-        <x:v>38</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:6">
       <x:c r="A15" s="17"/>
       <x:c r="B15" s="4" t="s">
-        <x:v>13</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C15" s="8"/>
       <x:c r="D15" s="5"/>
       <x:c r="E15" s="6" t="s">
-        <x:v>32</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F15" s="7" t="s">
-        <x:v>42</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:6">
       <x:c r="A16" s="17"/>
       <x:c r="B16" s="4" t="s">
-        <x:v>50</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C16" s="8"/>
       <x:c r="D16" s="5"/>
       <x:c r="E16" s="6" t="s">
-        <x:v>27</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F16" s="7" t="s">
-        <x:v>28</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:6">
       <x:c r="A17" s="17"/>
       <x:c r="B17" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C17" s="8"/>
       <x:c r="D17" s="5"/>
       <x:c r="E17" s="6" t="s">
-        <x:v>36</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F17" s="7" t="s">
-        <x:v>44</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:6">
@@ -1751,7 +1751,7 @@
     </x:row>
     <x:row r="19" spans="1:6">
       <x:c r="A19" s="20" t="s">
-        <x:v>3</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B19" s="20"/>
       <x:c r="C19" s="20"/>
@@ -1761,7 +1761,7 @@
     </x:row>
     <x:row r="20" spans="1:6">
       <x:c r="A20" s="21" t="s">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B20" s="21"/>
       <x:c r="C20" s="21"/>
@@ -1771,7 +1771,7 @@
     </x:row>
     <x:row r="21" spans="1:6">
       <x:c r="A21" s="22" t="s">
-        <x:v>5</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B21" s="22"/>
       <x:c r="C21" s="22"/>
@@ -1781,7 +1781,7 @@
     </x:row>
     <x:row r="22" spans="1:6">
       <x:c r="A22" s="22" t="s">
-        <x:v>4</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B22" s="23"/>
       <x:c r="C22" s="23"/>
@@ -1802,7 +1802,7 @@
     <x:mergeCell ref="A21:F21"/>
     <x:mergeCell ref="A22:F22"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69986110925674438477" right="0.69986110925674438477" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
+  <x:pageMargins left="0.69972223043441772461" right="0.69972223043441772461" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1"/>
   <x:legacyDrawing r:id="rId1"/>

--- a/4월/18회차_실습체크리스트_맹민재.xlsx
+++ b/4월/18회차_실습체크리스트_맹민재.xlsx
@@ -21,31 +21,133 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <x:si>
+    <x:t>제출일자: 5월 12일(월) 23시 59분까지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>git 주소 : https://github.com/Mminjae/Practice</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">git이 없을시 실습이 완료된 디렉터리를 압축하여(홍길동_실습.zip) DM으로 보내주세요.  </x:t>
+  </x:si>
+  <x:si>
+    <x:t>12_java(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01_java(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05_java(심화)</x:t>
+  </x:si>
+  <x:si>
     <x:t>06_java(기본)</x:t>
   </x:si>
   <x:si>
-    <x:t>01_java(심화)</x:t>
+    <x:t>03_java(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12_java(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11_java(기본)</x:t>
   </x:si>
   <x:si>
     <x:t>08_java(심화)</x:t>
   </x:si>
   <x:si>
-    <x:t>05_java(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>03_java(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12_java(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12_java(심화)</x:t>
+    <x:t>09_java(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10_java(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06_java(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10_java(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07_java(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08_java(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13_java(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02 조건문과 반복문, 참조타입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>심화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>항목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03_java(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08 멀티스레드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름 : 홍길동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07_java(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11_java(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09 제너릭, 컬렉션</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13_java(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02_java(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05_java(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09_java(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01_java(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04_java(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실습 체크 리스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04_java(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06 중첩 객체</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05 인터페이스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02_java(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13 데이터 입출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07 예외처리, 라이브러리</x:t>
   </x:si>
   <x:si>
     <x:t>12 스트림 요소 처리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>07 예외처리, 라이브러리</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -385,131 +487,29 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>02 조건문과 반복문, 참조타입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>06_java(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13_java(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08_java(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09_java(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10_java(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10_java(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>07_java(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11_java(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제출일자: 5월 12일(월) 23시 59분까지</x:t>
+    <x:t>04 상속</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실습 디렉터리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03 클래스</x:t>
   </x:si>
   <x:si>
     <x:t>11 람다식</x:t>
   </x:si>
   <x:si>
-    <x:t>04 상속</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실습 디렉터리</x:t>
-  </x:si>
-  <x:si>
     <x:t>10 컬렉션</x:t>
-  </x:si>
-  <x:si>
-    <x:t>03 클래스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>git 주소 : https://github.com/Mminjae/Practice</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">git이 없을시 실습이 완료된 디렉터리를 압축하여(홍길동_실습.zip) DM으로 보내주세요.  </x:t>
-  </x:si>
-  <x:si>
-    <x:t>01 개발환경 구축, 변수, 타입, 연산자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실습한 단원의 항목은 v 체크해주세요.</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve"> 02 백엔드 개발을 위한
 자바 프로그래밍</x:t>
   </x:si>
   <x:si>
-    <x:t>04_java(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02_java(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>06 중첩 객체</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02_java(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>05 인터페이스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>05_java(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13 데이터 입출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실습 체크 리스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>04_java(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13_java(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09_java(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>01_java(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08 멀티스레드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름 : 홍길동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>03_java(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09 제너릭, 컬렉션</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11_java(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>07_java(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>심화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>항목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본</x:t>
+    <x:t>01 개발환경 구축, 변수, 타입, 연산자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실습한 단원의 항목은 v 체크해주세요.</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1494,7 +1494,7 @@
   <x:dimension ref="A1:F22"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <x:selection activeCell="G5" activeCellId="0" sqref="G5:G5"/>
+      <x:selection activeCell="K20" activeCellId="0" sqref="K20:K20"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
@@ -1507,7 +1507,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" ht="19.25">
       <x:c r="A1" s="9" t="s">
-        <x:v>37</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B1" s="10"/>
       <x:c r="C1" s="10"/>
@@ -1517,7 +1517,7 @@
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="11" t="s">
-        <x:v>9</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B2" s="12"/>
       <x:c r="C2" s="12"/>
@@ -1527,218 +1527,218 @@
     </x:row>
     <x:row r="3" spans="1:6" ht="27" customHeight="1">
       <x:c r="A3" s="13" t="s">
-        <x:v>43</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B3" s="14"/>
       <x:c r="C3" s="14"/>
       <x:c r="D3" s="15"/>
       <x:c r="E3" s="16" t="s">
-        <x:v>22</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F3" s="16"/>
     </x:row>
     <x:row r="4" spans="1:6">
       <x:c r="A4" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D4" s="3" t="s">
-        <x:v>48</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E4" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F4" s="3" t="s">
-        <x:v>48</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6" ht="21.39999999999999857891">
       <x:c r="A5" s="17" t="s">
-        <x:v>29</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B5" s="4" t="s">
-        <x:v>27</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C5" s="8"/>
       <x:c r="D5" s="5"/>
       <x:c r="E5" s="6" t="s">
-        <x:v>41</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F5" s="7" t="s">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="17"/>
       <x:c r="B6" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C6" s="8"/>
       <x:c r="D6" s="5"/>
       <x:c r="E6" s="6" t="s">
-        <x:v>33</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F6" s="7" t="s">
-        <x:v>31</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="17"/>
       <x:c r="B7" s="4" t="s">
-        <x:v>24</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C7" s="8"/>
       <x:c r="D7" s="5"/>
       <x:c r="E7" s="6" t="s">
-        <x:v>44</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F7" s="7" t="s">
-        <x:v>4</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="17"/>
       <x:c r="B8" s="4" t="s">
-        <x:v>21</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C8" s="8"/>
       <x:c r="D8" s="5"/>
       <x:c r="E8" s="6" t="s">
-        <x:v>38</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F8" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="17"/>
       <x:c r="B9" s="4" t="s">
-        <x:v>34</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C9" s="8"/>
       <x:c r="D9" s="5"/>
       <x:c r="E9" s="6" t="s">
-        <x:v>35</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F9" s="7" t="s">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="17"/>
       <x:c r="B10" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C10" s="8"/>
       <x:c r="D10" s="5"/>
       <x:c r="E10" s="6" t="s">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F10" s="7" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="17"/>
       <x:c r="B11" s="4" t="s">
-        <x:v>8</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C11" s="8"/>
       <x:c r="D11" s="5"/>
       <x:c r="E11" s="6" t="s">
-        <x:v>17</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F11" s="7" t="s">
-        <x:v>47</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="A12" s="17"/>
       <x:c r="B12" s="4" t="s">
-        <x:v>42</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C12" s="8"/>
       <x:c r="D12" s="5"/>
       <x:c r="E12" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F12" s="7" t="s">
-        <x:v>2</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6">
       <x:c r="A13" s="17"/>
       <x:c r="B13" s="4" t="s">
-        <x:v>45</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C13" s="8"/>
       <x:c r="D13" s="5"/>
       <x:c r="E13" s="6" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F13" s="7" t="s">
-        <x:v>40</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6">
       <x:c r="A14" s="17"/>
       <x:c r="B14" s="4" t="s">
-        <x:v>23</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C14" s="8"/>
       <x:c r="D14" s="5"/>
       <x:c r="E14" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F14" s="7" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:6">
       <x:c r="A15" s="17"/>
       <x:c r="B15" s="4" t="s">
-        <x:v>20</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C15" s="8"/>
       <x:c r="D15" s="5"/>
       <x:c r="E15" s="6" t="s">
-        <x:v>18</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F15" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:6">
       <x:c r="A16" s="17"/>
       <x:c r="B16" s="4" t="s">
-        <x:v>7</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C16" s="8"/>
       <x:c r="D16" s="5"/>
       <x:c r="E16" s="6" t="s">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F16" s="7" t="s">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:6">
       <x:c r="A17" s="17"/>
       <x:c r="B17" s="4" t="s">
-        <x:v>36</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C17" s="8"/>
       <x:c r="D17" s="5"/>
       <x:c r="E17" s="6" t="s">
-        <x:v>12</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F17" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:6">
@@ -1751,7 +1751,7 @@
     </x:row>
     <x:row r="19" spans="1:6">
       <x:c r="A19" s="20" t="s">
-        <x:v>28</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B19" s="20"/>
       <x:c r="C19" s="20"/>
@@ -1761,7 +1761,7 @@
     </x:row>
     <x:row r="20" spans="1:6">
       <x:c r="A20" s="21" t="s">
-        <x:v>25</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B20" s="21"/>
       <x:c r="C20" s="21"/>
@@ -1771,7 +1771,7 @@
     </x:row>
     <x:row r="21" spans="1:6">
       <x:c r="A21" s="22" t="s">
-        <x:v>26</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B21" s="22"/>
       <x:c r="C21" s="22"/>
@@ -1781,7 +1781,7 @@
     </x:row>
     <x:row r="22" spans="1:6">
       <x:c r="A22" s="22" t="s">
-        <x:v>19</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="23"/>
       <x:c r="C22" s="23"/>

--- a/4월/18회차_실습체크리스트_맹민재.xlsx
+++ b/4월/18회차_실습체크리스트_맹민재.xlsx
@@ -30,124 +30,31 @@
     <x:t xml:space="preserve">git이 없을시 실습이 완료된 디렉터리를 압축하여(홍길동_실습.zip) DM으로 보내주세요.  </x:t>
   </x:si>
   <x:si>
-    <x:t>12_java(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>01_java(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>05_java(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>06_java(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>03_java(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12_java(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11_java(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08_java(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09_java(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10_java(심화)</x:t>
+    <x:t>07_java(심화)</x:t>
   </x:si>
   <x:si>
     <x:t>06_java(심화)</x:t>
   </x:si>
   <x:si>
-    <x:t>10_java(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>07_java(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08_java(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13_java(기본)</x:t>
+    <x:t>09 제너릭, 컬렉션</x:t>
   </x:si>
   <x:si>
     <x:t>02 조건문과 반복문, 참조타입</x:t>
   </x:si>
   <x:si>
-    <x:t>기본</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>심화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>항목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>03_java(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08 멀티스레드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름 : 홍길동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>07_java(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11_java(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09 제너릭, 컬렉션</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13_java(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02_java(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>05_java(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09_java(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>01_java(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>04_java(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실습 체크 리스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>04_java(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>06 중첩 객체</x:t>
-  </x:si>
-  <x:si>
-    <x:t>05 인터페이스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02_java(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13 데이터 입출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>07 예외처리, 라이브러리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12 스트림 요소 처리</x:t>
+    <x:t>10 컬렉션</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실습 디렉터리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03 클래스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04 상속</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11 람다식</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -487,21 +394,6 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>04 상속</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실습 디렉터리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>03 클래스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11 람다식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10 컬렉션</x:t>
-  </x:si>
-  <x:si>
     <x:t xml:space="preserve"> 02 백엔드 개발을 위한
 자바 프로그래밍</x:t>
   </x:si>
@@ -510,6 +402,114 @@
   </x:si>
   <x:si>
     <x:t>실습한 단원의 항목은 v 체크해주세요.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12 스트림 요소 처리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07 예외처리, 라이브러리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01_java(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실습 체크 리스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08_java(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03_java(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09_java(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04_java(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13 데이터 입출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13_java(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11_java(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04_java(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10_java(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06 중첩 객체</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05 인터페이스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11_java(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08_java(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07_java(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05_java(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12_java(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10_java(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03_java(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름 : 홍길동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09_java(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06_java(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13_java(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08 멀티스레드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02_java(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05_java(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02_java(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12_java(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01_java(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>심화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>항목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1494,7 +1494,7 @@
   <x:dimension ref="A1:F22"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <x:selection activeCell="K20" activeCellId="0" sqref="K20:K20"/>
+      <x:selection activeCell="D11" activeCellId="0" sqref="D11:D11"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
@@ -1507,7 +1507,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" ht="19.25">
       <x:c r="A1" s="9" t="s">
-        <x:v>35</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B1" s="10"/>
       <x:c r="C1" s="10"/>
@@ -1517,7 +1517,7 @@
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="11" t="s">
-        <x:v>43</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B2" s="12"/>
       <x:c r="C2" s="12"/>
@@ -1527,218 +1527,218 @@
     </x:row>
     <x:row r="3" spans="1:6" ht="27" customHeight="1">
       <x:c r="A3" s="13" t="s">
-        <x:v>25</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B3" s="14"/>
       <x:c r="C3" s="14"/>
       <x:c r="D3" s="15"/>
       <x:c r="E3" s="16" t="s">
-        <x:v>45</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F3" s="16"/>
     </x:row>
     <x:row r="4" spans="1:6">
       <x:c r="A4" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D4" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E4" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F4" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6" ht="21.39999999999999857891">
       <x:c r="A5" s="17" t="s">
-        <x:v>49</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B5" s="4" t="s">
-        <x:v>50</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C5" s="8"/>
       <x:c r="D5" s="5"/>
       <x:c r="E5" s="6" t="s">
-        <x:v>33</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F5" s="7" t="s">
-        <x:v>4</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="17"/>
       <x:c r="B6" s="4" t="s">
-        <x:v>18</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C6" s="8"/>
       <x:c r="D6" s="5"/>
       <x:c r="E6" s="6" t="s">
-        <x:v>39</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F6" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="17"/>
       <x:c r="B7" s="4" t="s">
-        <x:v>46</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C7" s="8"/>
       <x:c r="D7" s="5"/>
       <x:c r="E7" s="6" t="s">
-        <x:v>23</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F7" s="7" t="s">
-        <x:v>7</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="17"/>
       <x:c r="B8" s="4" t="s">
-        <x:v>44</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="8"/>
       <x:c r="D8" s="5"/>
       <x:c r="E8" s="6" t="s">
-        <x:v>36</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F8" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="17"/>
       <x:c r="B9" s="4" t="s">
-        <x:v>38</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C9" s="8"/>
       <x:c r="D9" s="5"/>
       <x:c r="E9" s="6" t="s">
-        <x:v>31</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F9" s="7" t="s">
-        <x:v>5</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="17"/>
       <x:c r="B10" s="4" t="s">
-        <x:v>37</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C10" s="8"/>
       <x:c r="D10" s="5"/>
       <x:c r="E10" s="6" t="s">
-        <x:v>6</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F10" s="7" t="s">
-        <x:v>13</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="17"/>
       <x:c r="B11" s="4" t="s">
-        <x:v>41</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C11" s="8"/>
       <x:c r="D11" s="5"/>
       <x:c r="E11" s="6" t="s">
-        <x:v>15</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F11" s="7" t="s">
-        <x:v>26</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="A12" s="17"/>
       <x:c r="B12" s="4" t="s">
-        <x:v>24</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C12" s="8"/>
       <x:c r="D12" s="5"/>
       <x:c r="E12" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F12" s="7" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6">
       <x:c r="A13" s="17"/>
       <x:c r="B13" s="4" t="s">
-        <x:v>28</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C13" s="8"/>
       <x:c r="D13" s="5"/>
       <x:c r="E13" s="6" t="s">
-        <x:v>11</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F13" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6">
       <x:c r="A14" s="17"/>
       <x:c r="B14" s="4" t="s">
-        <x:v>48</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C14" s="8"/>
       <x:c r="D14" s="5"/>
       <x:c r="E14" s="6" t="s">
-        <x:v>14</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F14" s="7" t="s">
-        <x:v>12</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:6">
       <x:c r="A15" s="17"/>
       <x:c r="B15" s="4" t="s">
-        <x:v>47</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C15" s="8"/>
       <x:c r="D15" s="5"/>
       <x:c r="E15" s="6" t="s">
-        <x:v>9</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F15" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:6">
       <x:c r="A16" s="17"/>
       <x:c r="B16" s="4" t="s">
-        <x:v>42</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C16" s="8"/>
       <x:c r="D16" s="5"/>
       <x:c r="E16" s="6" t="s">
-        <x:v>8</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F16" s="7" t="s">
-        <x:v>3</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:6">
       <x:c r="A17" s="17"/>
       <x:c r="B17" s="4" t="s">
-        <x:v>40</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C17" s="8"/>
       <x:c r="D17" s="5"/>
       <x:c r="E17" s="6" t="s">
-        <x:v>17</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F17" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:6">
@@ -1751,7 +1751,7 @@
     </x:row>
     <x:row r="19" spans="1:6">
       <x:c r="A19" s="20" t="s">
-        <x:v>51</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B19" s="20"/>
       <x:c r="C19" s="20"/>

--- a/4월/18회차_실습체크리스트_맹민재.xlsx
+++ b/4월/18회차_실습체크리스트_맹민재.xlsx
@@ -21,7 +21,14 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <x:si>
-    <x:t>제출일자: 5월 12일(월) 23시 59분까지</x:t>
+    <x:t xml:space="preserve"> 02 백엔드 개발을 위한
+자바 프로그래밍</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실습한 단원의 항목은 v 체크해주세요.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01 개발환경 구축, 변수, 타입, 연산자</x:t>
   </x:si>
   <x:si>
     <x:t>git 주소 : https://github.com/Mminjae/Practice</x:t>
@@ -30,31 +37,34 @@
     <x:t xml:space="preserve">git이 없을시 실습이 완료된 디렉터리를 압축하여(홍길동_실습.zip) DM으로 보내주세요.  </x:t>
   </x:si>
   <x:si>
-    <x:t>07_java(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>06_java(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09 제너릭, 컬렉션</x:t>
+    <x:t>11 람다식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10 컬렉션</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실습 디렉터리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03 클래스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04 상속</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>항목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본</x:t>
+  </x:si>
+  <x:si>
+    <x:t>심화</x:t>
   </x:si>
   <x:si>
     <x:t>02 조건문과 반복문, 참조타입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10 컬렉션</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실습 디렉터리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>03 클래스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>04 상속</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11 람다식</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -394,122 +404,112 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve"> 02 백엔드 개발을 위한
-자바 프로그래밍</x:t>
-  </x:si>
-  <x:si>
-    <x:t>01 개발환경 구축, 변수, 타입, 연산자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실습한 단원의 항목은 v 체크해주세요.</x:t>
+    <x:t>07_java(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09 제너릭, 컬렉션</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06_java(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01_java(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08_java(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03_java(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실습 체크 리스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09_java(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04_java(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04_java(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11_java(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08_java(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07_java(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05_java(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05 인터페이스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10_java(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11_java(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12_java(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03_java(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09_java(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13 데이터 입출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06 중첩 객체</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름 : 홍길동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13_java(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10_java(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08 멀티스레드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12_java(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02_java(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02_java(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06_java(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01_java(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13_java(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05_java(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07 예외처리, 라이브러리</x:t>
   </x:si>
   <x:si>
     <x:t>12 스트림 요소 처리</x:t>
   </x:si>
   <x:si>
-    <x:t>07 예외처리, 라이브러리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>01_java(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실습 체크 리스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08_java(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>03_java(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09_java(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>04_java(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13 데이터 입출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13_java(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11_java(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>04_java(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10_java(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>06 중첩 객체</x:t>
-  </x:si>
-  <x:si>
-    <x:t>05 인터페이스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11_java(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08_java(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>07_java(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>05_java(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12_java(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10_java(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>03_java(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름 : 홍길동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09_java(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>06_java(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13_java(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08 멀티스레드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02_java(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>05_java(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02_java(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12_java(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>01_java(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>심화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>항목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본</x:t>
+    <x:t>제출일자: 5월 12일(월) 23시 59분까지</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1493,7 +1493,7 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:F22"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="140" zoomScaleNormal="130" zoomScaleSheetLayoutView="140" workbookViewId="0">
       <x:selection activeCell="D11" activeCellId="0" sqref="D11:D11"/>
     </x:sheetView>
   </x:sheetViews>
@@ -1507,7 +1507,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" ht="19.25">
       <x:c r="A1" s="9" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B1" s="10"/>
       <x:c r="C1" s="10"/>
@@ -1517,7 +1517,7 @@
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="11" t="s">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B2" s="12"/>
       <x:c r="C2" s="12"/>
@@ -1533,64 +1533,64 @@
       <x:c r="C3" s="14"/>
       <x:c r="D3" s="15"/>
       <x:c r="E3" s="16" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F3" s="16"/>
     </x:row>
     <x:row r="4" spans="1:6">
       <x:c r="A4" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D4" s="3" t="s">
-        <x:v>48</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F4" s="3" t="s">
-        <x:v>48</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6" ht="21.39999999999999857891">
       <x:c r="A5" s="17" t="s">
-        <x:v>13</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B5" s="4" t="s">
-        <x:v>14</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C5" s="8"/>
       <x:c r="D5" s="5"/>
       <x:c r="E5" s="6" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F5" s="7" t="s">
-        <x:v>47</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="17"/>
       <x:c r="B6" s="4" t="s">
-        <x:v>6</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C6" s="8"/>
       <x:c r="D6" s="5"/>
       <x:c r="E6" s="6" t="s">
-        <x:v>45</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F6" s="7" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="17"/>
       <x:c r="B7" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C7" s="8"/>
       <x:c r="D7" s="5"/>
@@ -1598,21 +1598,21 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="F7" s="7" t="s">
-        <x:v>37</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="17"/>
       <x:c r="B8" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C8" s="8"/>
       <x:c r="D8" s="5"/>
       <x:c r="E8" s="6" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F8" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6">
@@ -1623,49 +1623,49 @@
       <x:c r="C9" s="8"/>
       <x:c r="D9" s="5"/>
       <x:c r="E9" s="6" t="s">
-        <x:v>44</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F9" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="17"/>
       <x:c r="B10" s="4" t="s">
-        <x:v>29</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C10" s="8"/>
       <x:c r="D10" s="5"/>
       <x:c r="E10" s="6" t="s">
-        <x:v>40</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F10" s="7" t="s">
-        <x:v>4</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="17"/>
       <x:c r="B11" s="4" t="s">
-        <x:v>17</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C11" s="8"/>
       <x:c r="D11" s="5"/>
       <x:c r="E11" s="6" t="s">
-        <x:v>33</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F11" s="7" t="s">
-        <x:v>3</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="A12" s="17"/>
       <x:c r="B12" s="4" t="s">
-        <x:v>42</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C12" s="8"/>
       <x:c r="D12" s="5"/>
       <x:c r="E12" s="6" t="s">
-        <x:v>32</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F12" s="7" t="s">
         <x:v>20</x:v>
@@ -1674,35 +1674,35 @@
     <x:row r="13" spans="1:6">
       <x:c r="A13" s="17"/>
       <x:c r="B13" s="4" t="s">
-        <x:v>5</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C13" s="8"/>
       <x:c r="D13" s="5"/>
       <x:c r="E13" s="6" t="s">
-        <x:v>39</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F13" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6">
       <x:c r="A14" s="17"/>
       <x:c r="B14" s="4" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C14" s="8"/>
       <x:c r="D14" s="5"/>
       <x:c r="E14" s="6" t="s">
-        <x:v>36</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F14" s="7" t="s">
-        <x:v>28</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:6">
       <x:c r="A15" s="17"/>
       <x:c r="B15" s="4" t="s">
-        <x:v>11</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C15" s="8"/>
       <x:c r="D15" s="5"/>
@@ -1710,35 +1710,35 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="F15" s="7" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:6">
       <x:c r="A16" s="17"/>
       <x:c r="B16" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C16" s="8"/>
       <x:c r="D16" s="5"/>
       <x:c r="E16" s="6" t="s">
-        <x:v>46</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F16" s="7" t="s">
-        <x:v>35</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:6">
       <x:c r="A17" s="17"/>
       <x:c r="B17" s="4" t="s">
-        <x:v>24</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C17" s="8"/>
       <x:c r="D17" s="5"/>
       <x:c r="E17" s="6" t="s">
-        <x:v>41</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F17" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:6">
@@ -1751,7 +1751,7 @@
     </x:row>
     <x:row r="19" spans="1:6">
       <x:c r="A19" s="20" t="s">
-        <x:v>15</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B19" s="20"/>
       <x:c r="C19" s="20"/>
@@ -1761,7 +1761,7 @@
     </x:row>
     <x:row r="20" spans="1:6">
       <x:c r="A20" s="21" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B20" s="21"/>
       <x:c r="C20" s="21"/>
@@ -1771,7 +1771,7 @@
     </x:row>
     <x:row r="21" spans="1:6">
       <x:c r="A21" s="22" t="s">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B21" s="22"/>
       <x:c r="C21" s="22"/>
@@ -1781,7 +1781,7 @@
     </x:row>
     <x:row r="22" spans="1:6">
       <x:c r="A22" s="22" t="s">
-        <x:v>0</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B22" s="23"/>
       <x:c r="C22" s="23"/>
